--- a/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="301">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>Needed to allow editing of the questionnaire response in a manner that enforces the constraints of the original form.</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/Questionnaire/MotivoDerivacion</t>
   </si>
   <si>
     <t>Event.instantiates</t>
@@ -2823,7 +2826,7 @@
         <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>79</v>
@@ -2877,10 +2880,10 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -2888,10 +2891,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2917,16 +2920,16 @@
         <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -2951,13 +2954,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -2975,7 +2978,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>88</v>
@@ -2990,25 +2993,25 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3027,19 +3030,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3088,7 +3091,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3103,21 +3106,21 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3140,19 +3143,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3201,7 +3204,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3216,25 +3219,25 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3253,19 +3256,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -3314,7 +3317,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3329,25 +3332,25 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3366,19 +3369,19 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -3427,7 +3430,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3442,21 +3445,21 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3479,19 +3482,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3540,7 +3543,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3558,18 +3561,18 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3592,16 +3595,16 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3651,7 +3654,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3663,13 +3666,13 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -3677,10 +3680,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3703,13 +3706,13 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3760,7 +3763,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3778,7 +3781,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -3786,10 +3789,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3818,7 +3821,7 @@
         <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>137</v>
@@ -3871,7 +3874,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3889,7 +3892,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -3897,14 +3900,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3926,10 +3929,10 @@
         <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>137</v>
@@ -3984,7 +3987,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4010,10 +4013,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4036,17 +4039,17 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4056,7 +4059,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -4095,7 +4098,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4113,7 +4116,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4121,10 +4124,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4150,16 +4153,16 @@
         <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4208,7 +4211,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4226,7 +4229,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4234,10 +4237,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4260,17 +4263,17 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4280,7 +4283,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -4319,7 +4322,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4337,7 +4340,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4345,10 +4348,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4371,16 +4374,16 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4430,7 +4433,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4448,7 +4451,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4456,10 +4459,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4482,13 +4485,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4539,7 +4542,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4557,7 +4560,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4565,10 +4568,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4597,7 +4600,7 @@
         <v>135</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>137</v>
@@ -4650,7 +4653,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4668,7 +4671,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4676,14 +4679,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4705,10 +4708,10 @@
         <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>137</v>
@@ -4763,7 +4766,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4789,10 +4792,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4815,19 +4818,19 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -4852,13 +4855,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -4876,7 +4879,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4894,7 +4897,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -4902,10 +4905,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4931,14 +4934,14 @@
         <v>80</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -4987,7 +4990,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5005,7 +5008,7 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5013,10 +5016,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5042,14 +5045,14 @@
         <v>80</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5098,7 +5101,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5116,7 +5119,7 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -295,10 +295,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -1568,13 +1568,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>79</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -852,7 +852,7 @@
     <t>A reference to an [ElementDefinition](http://hl7.org/fhir/R4/elementdefinition.html) that provides the details for the item.</t>
   </si>
   <si>
-    <t>The ElementDefinition must be in a [StructureDefinition](structuredefinition.html#), and must have a fragment identifier that identifies the specific data element by its id (Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x].
+    <t>The ElementDefinition must be in a [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#), and must have a fragment identifier that identifies the specific data element by its id (Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x].
 There is no need for this element if the item pointed to by the linkId has a definition listed.</t>
   </si>
   <si>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -501,7 +501,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>QuestionnaireResponse.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|Procedure)
+    <t xml:space="preserve">Reference(Observation|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -549,7 +549,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire)
+    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -735,7 +735,7 @@
     <t>QuestionnaireResponse.source</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -908,7 +908,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Single-valued answer to the question</t>
@@ -929,7 +929,7 @@
     <t>Code indicating the response provided for a question.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers|4.0.1</t>
   </si>
   <si>
     <t>.item</t>
@@ -1285,17 +1285,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.12890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="45.1640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.6640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="41.75390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1304,25 +1304,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.10546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.94140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.2265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="97.48828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
